--- a/data/trans_orig/P27_1-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P27_1-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>91960</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>74973</v>
+        <v>74966</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>110925</v>
+        <v>110610</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.09466195627990481</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.07717507174579852</v>
+        <v>0.07716877723293278</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1141839049879054</v>
+        <v>0.1138596126327536</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>48</v>
@@ -765,19 +765,19 @@
         <v>49565</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>36395</v>
+        <v>36083</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>65300</v>
+        <v>63693</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03942488236841116</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02894923020733383</v>
+        <v>0.02870111806609037</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05194093043006624</v>
+        <v>0.05066233939909889</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>140</v>
@@ -786,19 +786,19 @@
         <v>141525</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>118882</v>
+        <v>118679</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>165005</v>
+        <v>165934</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.06350237900916263</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.05334243261019966</v>
+        <v>0.05325135662744287</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07403775011437072</v>
+        <v>0.0744543524413066</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>169604</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>146935</v>
+        <v>146524</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>194897</v>
+        <v>194364</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1745863717232231</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1512512955485543</v>
+        <v>0.1508284159754877</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2006223038076039</v>
+        <v>0.2000742609547275</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>88</v>
@@ -836,19 +836,19 @@
         <v>89423</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>71496</v>
+        <v>72284</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>109232</v>
+        <v>110150</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.07112868953730052</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.05686915801863996</v>
+        <v>0.05749594805690177</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.08688477493308096</v>
+        <v>0.08761497874679836</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>254</v>
@@ -857,19 +857,19 @@
         <v>259027</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>230376</v>
+        <v>230743</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>292264</v>
+        <v>289763</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1162252491284696</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1033697177811217</v>
+        <v>0.1035341232069938</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1311386860201035</v>
+        <v>0.1300164608533927</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>356880</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>325442</v>
+        <v>325612</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>386877</v>
+        <v>385400</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3673646339499136</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.335002457673271</v>
+        <v>0.3351780062796988</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.398242209133581</v>
+        <v>0.3967218335614139</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>405</v>
@@ -907,19 +907,19 @@
         <v>408034</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>376927</v>
+        <v>378849</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>442993</v>
+        <v>440845</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3245565788792057</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2998138726394667</v>
+        <v>0.3013431226597109</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3523640468331549</v>
+        <v>0.3506554030118654</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>762</v>
@@ -928,19 +928,19 @@
         <v>764914</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>721270</v>
+        <v>718860</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>806901</v>
+        <v>807625</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3432163435838601</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3236332702660998</v>
+        <v>0.322552057769065</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3620557006802277</v>
+        <v>0.362380592853338</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>353016</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>324735</v>
+        <v>325173</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>384552</v>
+        <v>383069</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3633870380469584</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3342750685643723</v>
+        <v>0.3347259392787538</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3958491312802905</v>
+        <v>0.3943223877313144</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>692</v>
@@ -978,19 +978,19 @@
         <v>710181</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>674877</v>
+        <v>676289</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>745714</v>
+        <v>743107</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5648898492150826</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5368080121026051</v>
+        <v>0.5379314662470677</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5931533122444714</v>
+        <v>0.5910791848081299</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1057</v>
@@ -999,19 +999,19 @@
         <v>1063198</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1014607</v>
+        <v>1015861</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1112323</v>
+        <v>1110100</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4770560282785077</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4552536092492583</v>
+        <v>0.4558159991077368</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4990985511000833</v>
+        <v>0.4981009219059099</v>
       </c>
     </row>
     <row r="8">
@@ -1103,19 +1103,19 @@
         <v>146227</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>126525</v>
+        <v>124968</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>169801</v>
+        <v>172717</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.09037092239656426</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.07819518447901748</v>
+        <v>0.07723287045797339</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1049405923818952</v>
+        <v>0.1067426901429996</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>83</v>
@@ -1124,19 +1124,19 @@
         <v>84557</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>68061</v>
+        <v>68865</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>103186</v>
+        <v>104142</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.05603540098016017</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.0451037612129614</v>
+        <v>0.04563662558388289</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.06838097235101848</v>
+        <v>0.06901446619593397</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>222</v>
@@ -1145,19 +1145,19 @@
         <v>230783</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>202839</v>
+        <v>203072</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>260199</v>
+        <v>261147</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.07380204603599677</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.06486576380472002</v>
+        <v>0.06494044611467281</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.08320879913921021</v>
+        <v>0.08351209758400896</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>379891</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>346880</v>
+        <v>348198</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>416400</v>
+        <v>413029</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.234780070369138</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2143784201026264</v>
+        <v>0.2151932457369615</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.257343606038026</v>
+        <v>0.2552601486804134</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>302</v>
@@ -1195,19 +1195,19 @@
         <v>310828</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>278332</v>
+        <v>280420</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>343125</v>
+        <v>343373</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2059848622693541</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1844494191353829</v>
+        <v>0.1858336856061667</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2273879700847034</v>
+        <v>0.2275518878434219</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>673</v>
@@ -1216,19 +1216,19 @@
         <v>690719</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>647649</v>
+        <v>646438</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>743474</v>
+        <v>736572</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2208847158470369</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2071114527034132</v>
+        <v>0.2067241330031059</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2377550980002386</v>
+        <v>0.2355479697213358</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>609163</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>570091</v>
+        <v>570586</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>652611</v>
+        <v>647084</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3764746406627592</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3523278080524647</v>
+        <v>0.3526335188014732</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.403326535884929</v>
+        <v>0.3999106903750446</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>636</v>
@@ -1266,19 +1266,19 @@
         <v>652330</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>615388</v>
+        <v>612358</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>688500</v>
+        <v>692108</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4322968916769352</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4078157135160049</v>
+        <v>0.4058078920425152</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.4562669026604922</v>
+        <v>0.4586576827174063</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1226</v>
@@ -1287,19 +1287,19 @@
         <v>1261493</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1206057</v>
+        <v>1208615</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1317211</v>
+        <v>1313431</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.4034121076668444</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3856842715920398</v>
+        <v>0.3865023230728032</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.4212302012363681</v>
+        <v>0.4200214485905803</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>482791</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>444985</v>
+        <v>446337</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>517960</v>
+        <v>521455</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2983743665715385</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2750094651732228</v>
+        <v>0.2758449512646734</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3201096178444488</v>
+        <v>0.322269814720696</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>457</v>
@@ -1337,19 +1337,19 @@
         <v>461271</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>425800</v>
+        <v>426591</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>497497</v>
+        <v>498296</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3056828450735504</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2821764917375088</v>
+        <v>0.2827003241326936</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3296895909549153</v>
+        <v>0.3302193702279113</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>931</v>
@@ -1358,19 +1358,19 @@
         <v>944062</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>896491</v>
+        <v>893218</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>994072</v>
+        <v>991991</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3019011304501219</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2866883225466486</v>
+        <v>0.2856418039075687</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3178937850973484</v>
+        <v>0.3172283011332795</v>
       </c>
     </row>
     <row r="13">
@@ -1462,19 +1462,19 @@
         <v>21719</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>13785</v>
+        <v>13261</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>35297</v>
+        <v>33138</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.04143346414121236</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02629741469986296</v>
+        <v>0.02529869092328945</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.0673365773172207</v>
+        <v>0.06321894447682312</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>19</v>
@@ -1483,19 +1483,19 @@
         <v>20193</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>12868</v>
+        <v>12528</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>31150</v>
+        <v>30760</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.04543716245127478</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.02895358318246007</v>
+        <v>0.0281903052515248</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.07008990561594</v>
+        <v>0.06921364492136452</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>38</v>
@@ -1504,19 +1504,19 @@
         <v>41912</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>28521</v>
+        <v>29998</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>57640</v>
+        <v>55894</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.04327047475689737</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.02944495501256057</v>
+        <v>0.03097061741481245</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.05950805018333515</v>
+        <v>0.05770525686415851</v>
       </c>
     </row>
     <row r="15">
@@ -1533,19 +1533,19 @@
         <v>103574</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>84180</v>
+        <v>85965</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>123000</v>
+        <v>125537</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1975911554310131</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.160592997699327</v>
+        <v>0.1639989229164004</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2346526358480199</v>
+        <v>0.2394911181909046</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>66</v>
@@ -1554,19 +1554,19 @@
         <v>67535</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>54420</v>
+        <v>52456</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>84578</v>
+        <v>82911</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1519601444806353</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1224502568625682</v>
+        <v>0.1180324245975516</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.190310390866315</v>
+        <v>0.1865576921136665</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>167</v>
@@ -1575,19 +1575,19 @@
         <v>171108</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>147479</v>
+        <v>148706</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>197838</v>
+        <v>194990</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.176654350250261</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1522596744956647</v>
+        <v>0.1535263174786864</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2042504046810412</v>
+        <v>0.2013100586205909</v>
       </c>
     </row>
     <row r="16">
@@ -1604,19 +1604,19 @@
         <v>246154</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>222316</v>
+        <v>221961</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>269718</v>
+        <v>270128</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4695973179827818</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4241206884129504</v>
+        <v>0.4234431456996352</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.514550381084142</v>
+        <v>0.5153331421252033</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>240</v>
@@ -1625,19 +1625,19 @@
         <v>255712</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>234171</v>
+        <v>234131</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>275724</v>
+        <v>275841</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5753797663764505</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5269110535443974</v>
+        <v>0.5268209260501115</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.620409938715095</v>
+        <v>0.6206725405288565</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>473</v>
@@ -1646,19 +1646,19 @@
         <v>501866</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>467012</v>
+        <v>468992</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>530394</v>
+        <v>530435</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5181333128563046</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4821495740213003</v>
+        <v>0.4841934296629494</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5475861817776615</v>
+        <v>0.5476280946026366</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>152735</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>133222</v>
+        <v>132114</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>176782</v>
+        <v>174830</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2913780624449928</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2541527078978377</v>
+        <v>0.252038410397698</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3372528396480022</v>
+        <v>0.3335306227082132</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>96</v>
@@ -1696,19 +1696,19 @@
         <v>100983</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>83735</v>
+        <v>84689</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>120390</v>
+        <v>121943</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2272229266916395</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1884138335482928</v>
+        <v>0.190560538509146</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2708896544174339</v>
+        <v>0.2743855402971735</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>242</v>
@@ -1717,19 +1717,19 @@
         <v>253718</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>226977</v>
+        <v>226849</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>284720</v>
+        <v>281428</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.261941862136537</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2343345173291288</v>
+        <v>0.2342024001515782</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2939484323880404</v>
+        <v>0.2905502190560634</v>
       </c>
     </row>
     <row r="18">
@@ -1821,19 +1821,19 @@
         <v>259906</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>230248</v>
+        <v>229515</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>291531</v>
+        <v>298273</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.08347127968577556</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0739465496533554</v>
+        <v>0.07371113678439428</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.09362794558190493</v>
+        <v>0.09579331435180473</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>150</v>
@@ -1842,19 +1842,19 @@
         <v>154315</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>130824</v>
+        <v>129769</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>180808</v>
+        <v>176855</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04806405539027174</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04074729657508503</v>
+        <v>0.04041866541422754</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.05631563844676923</v>
+        <v>0.05508457021873582</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>400</v>
@@ -1863,19 +1863,19 @@
         <v>414221</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>373085</v>
+        <v>377356</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>455358</v>
+        <v>459687</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.06549641753661285</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.05899199921731067</v>
+        <v>0.05966744885033547</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.07200107592275662</v>
+        <v>0.07268552384002666</v>
       </c>
     </row>
     <row r="20">
@@ -1892,19 +1892,19 @@
         <v>653068</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>609079</v>
+        <v>604890</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>699482</v>
+        <v>700770</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2097393727364102</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1956119471208603</v>
+        <v>0.1942665321315216</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2246456609308113</v>
+        <v>0.2250593049761156</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>456</v>
@@ -1913,19 +1913,19 @@
         <v>467786</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>427645</v>
+        <v>430664</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>511179</v>
+        <v>512505</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1456999571348971</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1331974866394535</v>
+        <v>0.1341375704214236</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1592153628557323</v>
+        <v>0.15962845274665</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1094</v>
@@ -1934,19 +1934,19 @@
         <v>1120854</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1062940</v>
+        <v>1064234</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1183190</v>
+        <v>1192673</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1772290675528347</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1680717418782852</v>
+        <v>0.1682762961926935</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1870856365666646</v>
+        <v>0.1885850768023801</v>
       </c>
     </row>
     <row r="21">
@@ -1963,19 +1963,19 @@
         <v>1212197</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1159767</v>
+        <v>1158443</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>1266723</v>
+        <v>1268527</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.3893091920466404</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3724708166341623</v>
+        <v>0.3720455840310943</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4068206020284485</v>
+        <v>0.4074000691132426</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>1281</v>
@@ -1984,19 +1984,19 @@
         <v>1316075</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>1262564</v>
+        <v>1264876</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>1373264</v>
+        <v>1373667</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.4099141916405342</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.3932472032531292</v>
+        <v>0.3939671880991137</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.4277264880399002</v>
+        <v>0.4278520948459315</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>2461</v>
@@ -2005,19 +2005,19 @@
         <v>2528273</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>2444498</v>
+        <v>2442686</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>2604659</v>
+        <v>2601572</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.399769543984785</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.3865231847351818</v>
+        <v>0.3862366789305484</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.411847809746</v>
+        <v>0.4113596771732321</v>
       </c>
     </row>
     <row r="22">
@@ -2034,19 +2034,19 @@
         <v>988542</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>936759</v>
+        <v>942102</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1039184</v>
+        <v>1046103</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3174801555311739</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3008495135346281</v>
+        <v>0.3025655259744722</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3337442339480399</v>
+        <v>0.3359662762141201</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1245</v>
@@ -2055,19 +2055,19 @@
         <v>1272436</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1215839</v>
+        <v>1219026</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1328090</v>
+        <v>1327978</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3963217958342971</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3786939599162643</v>
+        <v>0.379686529453123</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4136563836733176</v>
+        <v>0.4136215156278456</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2230</v>
@@ -2076,19 +2076,19 @@
         <v>2260978</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2186676</v>
+        <v>2183997</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>2339678</v>
+        <v>2333351</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3575049709257675</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3457564775774232</v>
+        <v>0.3453327520691483</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3699489832912589</v>
+        <v>0.3689486086909104</v>
       </c>
     </row>
     <row r="23">
@@ -2419,19 +2419,19 @@
         <v>19117</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>11609</v>
+        <v>12085</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>29489</v>
+        <v>29753</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01995177351243943</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01211641166977078</v>
+        <v>0.01261315609906493</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03077658103538184</v>
+        <v>0.03105298127221904</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>15</v>
@@ -2440,19 +2440,19 @@
         <v>15273</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>8996</v>
+        <v>8960</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>24589</v>
+        <v>24722</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01176536483679675</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.006930515087549826</v>
+        <v>0.006902461456548435</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01894238968333878</v>
+        <v>0.0190451542800661</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>33</v>
@@ -2461,19 +2461,19 @@
         <v>34389</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>24244</v>
+        <v>24000</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>47926</v>
+        <v>48028</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01524184372849341</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01074546553570453</v>
+        <v>0.0106369178437121</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02124134674012937</v>
+        <v>0.02128666068609794</v>
       </c>
     </row>
     <row r="5">
@@ -2490,19 +2490,19 @@
         <v>23025</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>14720</v>
+        <v>15049</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>34303</v>
+        <v>34222</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02403086092439624</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01536249610252478</v>
+        <v>0.01570644056300929</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.03580159924472647</v>
+        <v>0.03571699910090458</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>31</v>
@@ -2511,19 +2511,19 @@
         <v>32427</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>22172</v>
+        <v>22826</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>45440</v>
+        <v>45646</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.0249801098544526</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01708024333425934</v>
+        <v>0.01758405941540235</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.03500508590933694</v>
+        <v>0.03516372904024778</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>53</v>
@@ -2532,19 +2532,19 @@
         <v>55452</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>41542</v>
+        <v>41142</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>71298</v>
+        <v>71025</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02457699732989402</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01841219087249467</v>
+        <v>0.01823477536135932</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.03160012958906555</v>
+        <v>0.03147940747243761</v>
       </c>
     </row>
     <row r="6">
@@ -2561,19 +2561,19 @@
         <v>70908</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>55934</v>
+        <v>56158</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>87345</v>
+        <v>89627</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.07400517724707416</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.05837760972158013</v>
+        <v>0.05861107190474199</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.09116002700669178</v>
+        <v>0.09354170906954014</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>68</v>
@@ -2582,19 +2582,19 @@
         <v>73832</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>57695</v>
+        <v>58404</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>93622</v>
+        <v>92507</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.05687712496960005</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.04444563735147224</v>
+        <v>0.04499221728027673</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.07212245206279878</v>
+        <v>0.07126350247910188</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>135</v>
@@ -2603,19 +2603,19 @@
         <v>144740</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>123178</v>
+        <v>121952</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>171378</v>
+        <v>171353</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.06415080437625892</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.05459428938744484</v>
+        <v>0.05405073890900067</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.07595719731033837</v>
+        <v>0.07594608111664204</v>
       </c>
     </row>
     <row r="7">
@@ -2632,19 +2632,19 @@
         <v>845099</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>823629</v>
+        <v>823307</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>864144</v>
+        <v>864120</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.8820121883160902</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.859604065244742</v>
+        <v>0.8592678029607916</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9018885570454539</v>
+        <v>0.9018642346112251</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1096</v>
@@ -2653,19 +2653,19 @@
         <v>1176568</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>1154458</v>
+        <v>1153819</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>1196835</v>
+        <v>1197007</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.9063774003391506</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.889344739703771</v>
+        <v>0.8888525148791576</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9219904790795775</v>
+        <v>0.9221233402606973</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1883</v>
@@ -2674,19 +2674,19 @@
         <v>2021667</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1988462</v>
+        <v>1986628</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>2051449</v>
+        <v>2050648</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.8960303545653536</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.8813136564954962</v>
+        <v>0.8805005886918121</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9092303327963513</v>
+        <v>0.9088751571600902</v>
       </c>
     </row>
     <row r="8">
@@ -2778,19 +2778,19 @@
         <v>43620</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>32738</v>
+        <v>32883</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>58193</v>
+        <v>58203</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.02298875719972369</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01725371404321436</v>
+        <v>0.01733018809868741</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.03066915767749293</v>
+        <v>0.03067457252505767</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>33</v>
@@ -2799,19 +2799,19 @@
         <v>34197</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>23878</v>
+        <v>24034</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>47855</v>
+        <v>48014</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.02020581365300558</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.01410898987760099</v>
+        <v>0.0142006822859915</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.02827621552954878</v>
+        <v>0.02837030018996939</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>77</v>
@@ -2820,19 +2820,19 @@
         <v>77816</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>62110</v>
+        <v>60906</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>98139</v>
+        <v>95722</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.02167674977051603</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01730158677719737</v>
+        <v>0.01696618930639884</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.02733784419022608</v>
+        <v>0.02666470759609043</v>
       </c>
     </row>
     <row r="10">
@@ -2849,19 +2849,19 @@
         <v>111644</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>91028</v>
+        <v>91586</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>132189</v>
+        <v>135273</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0588397224758536</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04797454167531922</v>
+        <v>0.04826854913667397</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0696673562842838</v>
+        <v>0.07129257186386538</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>78</v>
@@ -2870,19 +2870,19 @@
         <v>79732</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>63819</v>
+        <v>64582</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>97796</v>
+        <v>98045</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04711097397932014</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03770882756034159</v>
+        <v>0.03815969070188021</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05778465424776771</v>
+        <v>0.0579319249023056</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>183</v>
@@ -2891,19 +2891,19 @@
         <v>191376</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>162207</v>
+        <v>166915</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>218688</v>
+        <v>220687</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.05331025164598095</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04518498987604316</v>
+        <v>0.04649643566328313</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06091835617506784</v>
+        <v>0.06147511820187777</v>
       </c>
     </row>
     <row r="11">
@@ -2920,19 +2920,19 @@
         <v>282730</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>249989</v>
+        <v>251953</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>313838</v>
+        <v>313607</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1490069816330423</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1317510562345766</v>
+        <v>0.1327863328468641</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1654017773213342</v>
+        <v>0.1652796376983908</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>224</v>
@@ -2941,19 +2941,19 @@
         <v>235397</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>208491</v>
+        <v>207642</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>265109</v>
+        <v>265826</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1390888936513691</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1231911140359185</v>
+        <v>0.1226895201410544</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1566447618339191</v>
+        <v>0.1570686599913295</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>500</v>
@@ -2962,19 +2962,19 @@
         <v>518127</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>472929</v>
+        <v>476104</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>557733</v>
+        <v>560542</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1443311393469722</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1317404481829149</v>
+        <v>0.132625102467398</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1553638856503593</v>
+        <v>0.1561463203239411</v>
       </c>
     </row>
     <row r="12">
@@ -2991,19 +2991,19 @@
         <v>1459437</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1422642</v>
+        <v>1420399</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1496765</v>
+        <v>1493580</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.7691645386913804</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.7497729732942482</v>
+        <v>0.7485904745226978</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7888375911175747</v>
+        <v>0.787159019853707</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1236</v>
@@ -3012,19 +3012,19 @@
         <v>1343096</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1310758</v>
+        <v>1307430</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>1376069</v>
+        <v>1375247</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.7935943187163051</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.7744868577043459</v>
+        <v>0.7725204259715026</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.813077262097483</v>
+        <v>0.812591797850896</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>2605</v>
@@ -3033,19 +3033,19 @@
         <v>2802532</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>2753541</v>
+        <v>2748745</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>2855282</v>
+        <v>2855481</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.7806818592365308</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.7670346211132639</v>
+        <v>0.7656988348027051</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.7953759265414396</v>
+        <v>0.7954313870212164</v>
       </c>
     </row>
     <row r="13">
@@ -3137,19 +3137,19 @@
         <v>4199</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1034</v>
+        <v>1119</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>9567</v>
+        <v>10486</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.008962357039065149</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.002208001920628655</v>
+        <v>0.002388873305361627</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02042187692815413</v>
+        <v>0.02238361358337664</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>5</v>
@@ -3158,19 +3158,19 @@
         <v>5712</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2030</v>
+        <v>1920</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>14298</v>
+        <v>13010</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.01308990007918234</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.004651644476519733</v>
+        <v>0.004400774679435024</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.03276738857725481</v>
+        <v>0.02981477761486493</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>9</v>
@@ -3179,19 +3179,19 @@
         <v>9910</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5116</v>
+        <v>5081</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>19813</v>
+        <v>18912</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.01095287773033188</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.005653824643252274</v>
+        <v>0.00561509699903806</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02189695361908595</v>
+        <v>0.02090179082068059</v>
       </c>
     </row>
     <row r="15">
@@ -3208,19 +3208,19 @@
         <v>13195</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>6938</v>
+        <v>7538</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>22162</v>
+        <v>22263</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.02816614068340435</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.01480923136343382</v>
+        <v>0.01609098399125542</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.0473084175661992</v>
+        <v>0.04752220465083013</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>20</v>
@@ -3229,19 +3229,19 @@
         <v>23452</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>14173</v>
+        <v>14380</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>35682</v>
+        <v>35781</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.05374545713919635</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.03247987170982849</v>
+        <v>0.03295429393938736</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.08177422824309206</v>
+        <v>0.08199946747532424</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>33</v>
@@ -3250,19 +3250,19 @@
         <v>36647</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>25505</v>
+        <v>25616</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>51342</v>
+        <v>50642</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.04050184698103458</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.02818798930051894</v>
+        <v>0.0283108495953156</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.05674344672696102</v>
+        <v>0.05596885065333621</v>
       </c>
     </row>
     <row r="16">
@@ -3279,19 +3279,19 @@
         <v>86541</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>70594</v>
+        <v>68666</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>106496</v>
+        <v>104124</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1847328117492538</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1506923942528377</v>
+        <v>0.1465751773810048</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2273277930122705</v>
+        <v>0.2222654874977198</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>54</v>
@@ -3300,19 +3300,19 @@
         <v>59299</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>45025</v>
+        <v>45806</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>75883</v>
+        <v>74800</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.135897151707056</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1031854101487676</v>
+        <v>0.1049747834679128</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1739038304718823</v>
+        <v>0.1714213881849918</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>137</v>
@@ -3321,19 +3321,19 @@
         <v>145840</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>124758</v>
+        <v>125123</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>171290</v>
+        <v>171096</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1611816601704922</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.137881787563044</v>
+        <v>0.1382848920326171</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1893085898009637</v>
+        <v>0.1890941228125188</v>
       </c>
     </row>
     <row r="17">
@@ -3350,19 +3350,19 @@
         <v>364532</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>344459</v>
+        <v>344263</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>381588</v>
+        <v>383662</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7781386905282767</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7352897207251358</v>
+        <v>0.7348707903583162</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8145470362832394</v>
+        <v>0.8189723459254326</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>313</v>
@@ -3371,19 +3371,19 @@
         <v>347888</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>327822</v>
+        <v>329777</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>364966</v>
+        <v>364904</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7972674910745653</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7512816328676595</v>
+        <v>0.7557599491238451</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8364042415400156</v>
+        <v>0.8362627232255008</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>638</v>
@@ -3392,19 +3392,19 @@
         <v>712421</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>684677</v>
+        <v>686653</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>736979</v>
+        <v>736660</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7873636151181413</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7567010109381179</v>
+        <v>0.7588849288544133</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8145048512047336</v>
+        <v>0.8141528247162956</v>
       </c>
     </row>
     <row r="18">
@@ -3496,19 +3496,19 @@
         <v>66935</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>53212</v>
+        <v>52805</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>84509</v>
+        <v>83191</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02013657587015469</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01600832487432046</v>
+        <v>0.01588563088383677</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02542351337936221</v>
+        <v>0.0250270778064687</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>53</v>
@@ -3517,19 +3517,19 @@
         <v>55181</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>41709</v>
+        <v>42338</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>71105</v>
+        <v>71645</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.01610248557891615</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01217104929363341</v>
+        <v>0.01235462892496116</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02074934481583725</v>
+        <v>0.02090669368260484</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>119</v>
@@ -3538,19 +3538,19 @@
         <v>122116</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>102307</v>
+        <v>102720</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>146919</v>
+        <v>146172</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01808880851928784</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0151544584819384</v>
+        <v>0.01521565679667807</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02176282528881736</v>
+        <v>0.02165221341557435</v>
       </c>
     </row>
     <row r="20">
@@ -3567,19 +3567,19 @@
         <v>147864</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>123312</v>
+        <v>125110</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>173272</v>
+        <v>173208</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.04448323639328298</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.03709693537061013</v>
+        <v>0.03763776196433177</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.05212676102939103</v>
+        <v>0.0521077157476724</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>129</v>
@@ -3588,19 +3588,19 @@
         <v>135610</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>113630</v>
+        <v>112943</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>159061</v>
+        <v>160130</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.03957258446598523</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.03315838899200083</v>
+        <v>0.03295790719013093</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.04641574150903186</v>
+        <v>0.04672764700554709</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>269</v>
@@ -3609,19 +3609,19 @@
         <v>283475</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>252861</v>
+        <v>251519</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>319994</v>
+        <v>318153</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.04199051264090897</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.0374558465196318</v>
+        <v>0.03725703898999994</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.04740007538842046</v>
+        <v>0.0471272950557903</v>
       </c>
     </row>
     <row r="21">
@@ -3638,19 +3638,19 @@
         <v>440180</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>399647</v>
+        <v>404404</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>481881</v>
+        <v>485610</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1324228123973624</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1202289424230303</v>
+        <v>0.1216600784999011</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.14496814466574</v>
+        <v>0.146090070676148</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>346</v>
@@ -3659,19 +3659,19 @@
         <v>368528</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>331094</v>
+        <v>334582</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>404603</v>
+        <v>406634</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1075406569118236</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.09661708693793958</v>
+        <v>0.09763487466818317</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1180678644266745</v>
+        <v>0.1186604749789161</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>772</v>
@@ -3680,19 +3680,19 @@
         <v>808708</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>751229</v>
+        <v>751845</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>863413</v>
+        <v>864620</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1197922409564749</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1112780528744188</v>
+        <v>0.1113693035796117</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1278956848828846</v>
+        <v>0.1280743910675982</v>
       </c>
     </row>
     <row r="22">
@@ -3709,19 +3709,19 @@
         <v>2669068</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2622622</v>
+        <v>2622127</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>2719225</v>
+        <v>2717755</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8029573753392</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7889847503378107</v>
+        <v>0.7888355765765775</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8180465809251372</v>
+        <v>0.8176043602818888</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2645</v>
@@ -3730,19 +3730,19 @@
         <v>2867553</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2822709</v>
+        <v>2823423</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>2910924</v>
+        <v>2907928</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8367842730432751</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8236984976899171</v>
+        <v>0.8239067781895248</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8494404803820766</v>
+        <v>0.848566218670294</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>5126</v>
@@ -3751,19 +3751,19 @@
         <v>5536620</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>5471019</v>
+        <v>5477043</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>5600144</v>
+        <v>5598538</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8201284378833282</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8104110603080288</v>
+        <v>0.8113034747729043</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8295381281757306</v>
+        <v>0.829300202501325</v>
       </c>
     </row>
     <row r="23">
@@ -4094,19 +4094,19 @@
         <v>19335</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>11772</v>
+        <v>11670</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>30619</v>
+        <v>30182</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0263824473822367</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01606348281980869</v>
+        <v>0.01592411610915468</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04178057738784028</v>
+        <v>0.04118433522462111</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>20</v>
@@ -4115,19 +4115,19 @@
         <v>21859</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>12925</v>
+        <v>13557</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>32496</v>
+        <v>32442</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02288267892961259</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01353027560411273</v>
+        <v>0.01419212580591899</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03401806993029229</v>
+        <v>0.03396193508210971</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>38</v>
@@ -4136,19 +4136,19 @@
         <v>41193</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>29077</v>
+        <v>29167</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>56743</v>
+        <v>55185</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02440203814079537</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01722453271600915</v>
+        <v>0.01727795082353432</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03361320862240991</v>
+        <v>0.03269027276478896</v>
       </c>
     </row>
     <row r="5">
@@ -4165,19 +4165,19 @@
         <v>40640</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>29554</v>
+        <v>29925</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>53500</v>
+        <v>54264</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.05545433142416131</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.04032753733567326</v>
+        <v>0.04083307080111822</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.07300125026427434</v>
+        <v>0.07404443667729177</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>33</v>
@@ -4186,19 +4186,19 @@
         <v>35740</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>24528</v>
+        <v>24616</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>48590</v>
+        <v>49169</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.03741388660060681</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.02567694800769104</v>
+        <v>0.02576957399241782</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.05086684871209447</v>
+        <v>0.05147238506965228</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>73</v>
@@ -4207,19 +4207,19 @@
         <v>76380</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>59556</v>
+        <v>61413</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>93569</v>
+        <v>96956</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.04524580930850778</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.03527964191759646</v>
+        <v>0.03637997923026517</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.05542817206818006</v>
+        <v>0.05743490389989094</v>
       </c>
     </row>
     <row r="6">
@@ -4236,19 +4236,19 @@
         <v>94131</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>77615</v>
+        <v>78040</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>112626</v>
+        <v>112428</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1284430633140735</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1059068786199745</v>
+        <v>0.106487131839178</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1536804886267678</v>
+        <v>0.1534101258754958</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>68</v>
@@ -4257,19 +4257,19 @@
         <v>74889</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>58707</v>
+        <v>59345</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>92211</v>
+        <v>93223</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.07839789902368741</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.06145723777503741</v>
+        <v>0.06212543039118049</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.09653111374900528</v>
+        <v>0.09759073392683451</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>157</v>
@@ -4278,19 +4278,19 @@
         <v>169020</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>143359</v>
+        <v>144708</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>193963</v>
+        <v>195670</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1001240738746955</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.08492280235428373</v>
+        <v>0.0857220057033994</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1148998555446995</v>
+        <v>0.115911173737207</v>
       </c>
     </row>
     <row r="7">
@@ -4307,19 +4307,19 @@
         <v>578754</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>555956</v>
+        <v>554579</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>600512</v>
+        <v>599218</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.7897201578795285</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7586111179912008</v>
+        <v>0.7567329423986864</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8194088968424961</v>
+        <v>0.8176434816451487</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>736</v>
@@ -4328,19 +4328,19 @@
         <v>822760</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>799086</v>
+        <v>800409</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>843023</v>
+        <v>844191</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.8613055354460932</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.8365227978811736</v>
+        <v>0.8379074859981565</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.882518385014429</v>
+        <v>0.8837410148007516</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1330</v>
@@ -4349,19 +4349,19 @@
         <v>1401514</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1369631</v>
+        <v>1369341</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1432209</v>
+        <v>1429563</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.8302280786760013</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.8113413716610728</v>
+        <v>0.8111693669391327</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8484111653614724</v>
+        <v>0.8468436831114587</v>
       </c>
     </row>
     <row r="8">
@@ -4453,19 +4453,19 @@
         <v>63257</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>49252</v>
+        <v>48157</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>83404</v>
+        <v>80843</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.03098642751975076</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.02412601793425352</v>
+        <v>0.02358941805355347</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.04085530365216879</v>
+        <v>0.03960060225555444</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>49</v>
@@ -4474,19 +4474,19 @@
         <v>51115</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>39007</v>
+        <v>38665</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>67370</v>
+        <v>67859</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.02628134465654458</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.02005596002823224</v>
+        <v>0.01987995371483064</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.03463881297620323</v>
+        <v>0.03488996753321371</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>105</v>
@@ -4495,19 +4495,19 @@
         <v>114373</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>94490</v>
+        <v>94237</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>137719</v>
+        <v>139705</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.02869084684082689</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.02370314530618844</v>
+        <v>0.02363979524752348</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.03454736612916568</v>
+        <v>0.03504547401928751</v>
       </c>
     </row>
     <row r="10">
@@ -4524,19 +4524,19 @@
         <v>160539</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>136766</v>
+        <v>134914</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>185525</v>
+        <v>188094</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.07863990194740664</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.06699466568008713</v>
+        <v>0.06608721646206675</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.09087920335099352</v>
+        <v>0.09213752136144314</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>134</v>
@@ -4545,19 +4545,19 @@
         <v>139716</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>117357</v>
+        <v>118136</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>163655</v>
+        <v>163375</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07183586491484391</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06033995364917201</v>
+        <v>0.06074065493208655</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.08414468894826398</v>
+        <v>0.08400072962248095</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>283</v>
@@ -4566,19 +4566,19 @@
         <v>300255</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>267357</v>
+        <v>266217</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>336662</v>
+        <v>337319</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.07532025457779791</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.06706759354987805</v>
+        <v>0.06678161795679288</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08445319440834041</v>
+        <v>0.08461788733266154</v>
       </c>
     </row>
     <row r="11">
@@ -4595,19 +4595,19 @@
         <v>417376</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>378976</v>
+        <v>379574</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>454201</v>
+        <v>458576</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2044509302242421</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1856406125208257</v>
+        <v>0.1859336531903735</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2224895196843547</v>
+        <v>0.2246326638749917</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>369</v>
@@ -4616,19 +4616,19 @@
         <v>382586</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>347316</v>
+        <v>348365</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>417877</v>
+        <v>419939</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1967096611941132</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1785749050151797</v>
+        <v>0.1791146633242257</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2148547865392083</v>
+        <v>0.215914920447788</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>757</v>
@@ -4637,19 +4637,19 @@
         <v>799962</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>748776</v>
+        <v>747231</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>852260</v>
+        <v>850526</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2006740131895002</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.187833712922179</v>
+        <v>0.1874460859308217</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2137931767631369</v>
+        <v>0.2133579697145475</v>
       </c>
     </row>
     <row r="12">
@@ -4666,19 +4666,19 @@
         <v>1400276</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1356510</v>
+        <v>1356269</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1443485</v>
+        <v>1444169</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.6859227403086006</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.664483973633209</v>
+        <v>0.6643656286492124</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7070882208040618</v>
+        <v>0.7074235653704882</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1314</v>
@@ -4687,19 +4687,19 @@
         <v>1371512</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1329330</v>
+        <v>1334265</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>1411257</v>
+        <v>1413506</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.7051731292344983</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.6834850859706461</v>
+        <v>0.6860225956751405</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.725608407273615</v>
+        <v>0.7267648028332686</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>2641</v>
@@ -4708,19 +4708,19 @@
         <v>2771788</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>2716803</v>
+        <v>2713967</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>2832919</v>
+        <v>2828113</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.695314885391875</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.6815217744313314</v>
+        <v>0.6808102668193985</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.7106498628332696</v>
+        <v>0.7094443785935503</v>
       </c>
     </row>
     <row r="13">
@@ -4815,7 +4815,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>6984</v>
+        <v>7391</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.003738907382942284</v>
@@ -4824,7 +4824,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01311398114721866</v>
+        <v>0.01387853531870301</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>11</v>
@@ -4833,19 +4833,19 @@
         <v>10971</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>5802</v>
+        <v>6059</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>18819</v>
+        <v>20007</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.02043008108103562</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.0108038929042739</v>
+        <v>0.01128233163694208</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.03504568503525177</v>
+        <v>0.037257786272369</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>13</v>
@@ -4854,19 +4854,19 @@
         <v>12962</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>7087</v>
+        <v>7590</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>21865</v>
+        <v>22114</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.0121190481082838</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.006625611014747203</v>
+        <v>0.007096754603402955</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02044268520712651</v>
+        <v>0.02067550873465065</v>
       </c>
     </row>
     <row r="15">
@@ -4883,19 +4883,19 @@
         <v>22263</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>12956</v>
+        <v>13849</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>34403</v>
+        <v>34787</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.04180350525772954</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.0243281904445141</v>
+        <v>0.02600419078425953</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.06459758576343143</v>
+        <v>0.06531949848897341</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>27</v>
@@ -4904,19 +4904,19 @@
         <v>26814</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>18245</v>
+        <v>17435</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>39275</v>
+        <v>37046</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.04993371425010727</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.03397692883791483</v>
+        <v>0.0324680877267652</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.07313911509435485</v>
+        <v>0.06898769597286082</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>45</v>
@@ -4925,19 +4925,19 @@
         <v>49077</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>35592</v>
+        <v>35755</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>65458</v>
+        <v>64702</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.04588544081929795</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.03327741592395171</v>
+        <v>0.03342967448723488</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.06120062833284327</v>
+        <v>0.06049419393049224</v>
       </c>
     </row>
     <row r="16">
@@ -4954,19 +4954,19 @@
         <v>89121</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>73307</v>
+        <v>71530</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>106967</v>
+        <v>108661</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.16734139727888</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1376490805117662</v>
+        <v>0.1343117782164223</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2008519296605446</v>
+        <v>0.2040333294715736</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>76</v>
@@ -4975,19 +4975,19 @@
         <v>78891</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>63422</v>
+        <v>64642</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>97085</v>
+        <v>97186</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.14691196743968</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1181053500930516</v>
+        <v>0.120377759608027</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1807936563881931</v>
+        <v>0.1809814903095701</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>159</v>
@@ -4996,19 +4996,19 @@
         <v>168012</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>145504</v>
+        <v>145019</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>192461</v>
+        <v>194260</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1570843895880102</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1360405591034175</v>
+        <v>0.1355876121068008</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1799436211274027</v>
+        <v>0.1816253312659767</v>
       </c>
     </row>
     <row r="17">
@@ -5025,19 +5025,19 @@
         <v>419192</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>399148</v>
+        <v>397177</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>437908</v>
+        <v>438561</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7871161900804482</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7494791222427707</v>
+        <v>0.7457781145492254</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8222581752851834</v>
+        <v>0.8234849933852513</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>401</v>
@@ -5046,19 +5046,19 @@
         <v>420320</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>400415</v>
+        <v>399054</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>438435</v>
+        <v>437892</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7827242372291771</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7456564725900114</v>
+        <v>0.743121970543662</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8164584167374846</v>
+        <v>0.8154465187365095</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>787</v>
@@ -5067,19 +5067,19 @@
         <v>839512</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>810412</v>
+        <v>808970</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>864235</v>
+        <v>866772</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.784911121484408</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7577036084982834</v>
+        <v>0.7563558383922632</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8080264944934443</v>
+        <v>0.8103986896500086</v>
       </c>
     </row>
     <row r="18">
@@ -5171,19 +5171,19 @@
         <v>84583</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>66818</v>
+        <v>67718</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>104353</v>
+        <v>107459</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.02557793626327974</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02020563341258778</v>
+        <v>0.0204780100278334</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.03155640699943026</v>
+        <v>0.03249564338948312</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>80</v>
@@ -5192,19 +5192,19 @@
         <v>83945</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>67982</v>
+        <v>66155</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>102601</v>
+        <v>102056</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.02442264558188168</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01977852350796982</v>
+        <v>0.019246873200525</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.02985044311078689</v>
+        <v>0.02969192428784255</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>156</v>
@@ -5213,19 +5213,19 @@
         <v>168528</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>144031</v>
+        <v>143219</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>198608</v>
+        <v>197202</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.02498913080849133</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02135681088525012</v>
+        <v>0.02123632669464581</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.02944931651396517</v>
+        <v>0.02924082885403035</v>
       </c>
     </row>
     <row r="20">
@@ -5242,19 +5242,19 @@
         <v>223443</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>195155</v>
+        <v>193711</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>255667</v>
+        <v>257453</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.06756914074977274</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.05901501855245456</v>
+        <v>0.05857811046034846</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.07731365484367504</v>
+        <v>0.07785382516985481</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>194</v>
@@ -5263,19 +5263,19 @@
         <v>202269</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>176905</v>
+        <v>173165</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>232813</v>
+        <v>230418</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.05884761584857923</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.05146829300988506</v>
+        <v>0.05038020254470735</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.06773398061026017</v>
+        <v>0.06703698955032535</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>401</v>
@@ -5284,19 +5284,19 @@
         <v>425712</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>380834</v>
+        <v>388064</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>463403</v>
+        <v>472110</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.06312412832252685</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.05646965384864214</v>
+        <v>0.05754174596101551</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.06871294046402208</v>
+        <v>0.0700038837692305</v>
       </c>
     </row>
     <row r="21">
@@ -5313,19 +5313,19 @@
         <v>600627</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>555316</v>
+        <v>555504</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>646306</v>
+        <v>643646</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1816298623659556</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1679276675167466</v>
+        <v>0.1679845330192057</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1954430074089507</v>
+        <v>0.1946385401646993</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>513</v>
@@ -5334,19 +5334,19 @@
         <v>536367</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>495204</v>
+        <v>497445</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>579459</v>
+        <v>581441</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1560488856932868</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1440730703856801</v>
+        <v>0.1447252419107014</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1685859336102218</v>
+        <v>0.1691625447213818</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>1073</v>
@@ -5355,19 +5355,19 @@
         <v>1136994</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1073596</v>
+        <v>1075385</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>1203027</v>
+        <v>1201319</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1685922616597375</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1591916363777821</v>
+        <v>0.1594568853519366</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1783835880742948</v>
+        <v>0.1781302764565318</v>
       </c>
     </row>
     <row r="22">
@@ -5384,19 +5384,19 @@
         <v>2398223</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2347032</v>
+        <v>2349342</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>2448602</v>
+        <v>2456892</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.725223060620992</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7097430999103769</v>
+        <v>0.7104416460937414</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.7404576337474437</v>
+        <v>0.742964575783714</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2451</v>
@@ -5405,19 +5405,19 @@
         <v>2614590</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2562425</v>
+        <v>2556227</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>2662716</v>
+        <v>2663891</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.7606808528762522</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.745504106628857</v>
+        <v>0.7437007744754748</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7746823204410923</v>
+        <v>0.7750242530675093</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>4758</v>
@@ -5426,19 +5426,19 @@
         <v>5012814</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>4937033</v>
+        <v>4938950</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>5093379</v>
+        <v>5087457</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.7432944792092444</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7320578646221593</v>
+        <v>0.7323420852673586</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.755240569913491</v>
+        <v>0.7543625058938581</v>
       </c>
     </row>
     <row r="23">
@@ -5769,19 +5769,19 @@
         <v>13257</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>7533</v>
+        <v>7643</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>21366</v>
+        <v>22549</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02295486463884731</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01304391609289587</v>
+        <v>0.01323347964893251</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0369951197320987</v>
+        <v>0.03904476749208961</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>13</v>
@@ -5790,19 +5790,19 @@
         <v>9524</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>5274</v>
+        <v>5191</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>15790</v>
+        <v>15999</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01167156066360616</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.006463051845580358</v>
+        <v>0.006360717950506551</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01934941070510869</v>
+        <v>0.01960595909318941</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>28</v>
@@ -5811,19 +5811,19 @@
         <v>22781</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>14943</v>
+        <v>15760</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>32487</v>
+        <v>33967</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.01634766104501784</v>
+        <v>0.01634766104501783</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.010722793340077</v>
+        <v>0.01130933975232146</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02331244438344547</v>
+        <v>0.02437466791449934</v>
       </c>
     </row>
     <row r="5">
@@ -5840,19 +5840,19 @@
         <v>27697</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>18662</v>
+        <v>18691</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>38668</v>
+        <v>40133</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.04795774226842868</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.03231396895805601</v>
+        <v>0.03236312327969932</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.06695400819279215</v>
+        <v>0.06949099419795098</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>31</v>
@@ -5861,19 +5861,19 @@
         <v>17553</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>11788</v>
+        <v>12271</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>24499</v>
+        <v>24589</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02150972933431266</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01444519698352951</v>
+        <v>0.01503792720879479</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.03002200060052788</v>
+        <v>0.03013264491321151</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>58</v>
@@ -5882,19 +5882,19 @@
         <v>45249</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>33954</v>
+        <v>34377</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>58537</v>
+        <v>59381</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.03247048725062659</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02436516539597241</v>
+        <v>0.02466857113168345</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.0420059296660551</v>
+        <v>0.04261140538478676</v>
       </c>
     </row>
     <row r="6">
@@ -5911,19 +5911,19 @@
         <v>59967</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>45691</v>
+        <v>46501</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>78370</v>
+        <v>78251</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1038343218675787</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.07911583378872192</v>
+        <v>0.08051810240481037</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1357002287137341</v>
+        <v>0.1354931135056353</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>72</v>
@@ -5932,19 +5932,19 @@
         <v>47365</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>37249</v>
+        <v>37324</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>61226</v>
+        <v>62848</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.05804346838685408</v>
+        <v>0.05804346838685407</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.04564656365925446</v>
+        <v>0.04573817677399621</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.07502891304136187</v>
+        <v>0.07701758710712572</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>128</v>
@@ -5953,19 +5953,19 @@
         <v>107332</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>89622</v>
+        <v>89500</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>129636</v>
+        <v>127808</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.07702041236498583</v>
+        <v>0.07702041236498582</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.0643120570744785</v>
+        <v>0.0642241339941818</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.09302531541439345</v>
+        <v>0.09171390474537522</v>
       </c>
     </row>
     <row r="7">
@@ -5982,19 +5982,19 @@
         <v>476604</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>454976</v>
+        <v>454875</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>493586</v>
+        <v>495531</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.8252530712251455</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7878039902502374</v>
+        <v>0.7876288833788933</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8546569788537427</v>
+        <v>0.858025262197547</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1302</v>
@@ -6003,19 +6003,19 @@
         <v>741585</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>725706</v>
+        <v>725033</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>754003</v>
+        <v>753850</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.908775241615227</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.8893164109360637</v>
+        <v>0.8884911887945767</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9239921450258658</v>
+        <v>0.9238050685614907</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1894</v>
@@ -6024,19 +6024,19 @@
         <v>1218190</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1192624</v>
+        <v>1193497</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1241391</v>
+        <v>1240967</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.8741614393393699</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.8558156255487869</v>
+        <v>0.8564416989595502</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8908100230065188</v>
+        <v>0.89050556687597</v>
       </c>
     </row>
     <row r="8">
@@ -6128,19 +6128,19 @@
         <v>18818</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>11097</v>
+        <v>11590</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>32859</v>
+        <v>31615</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.008466209341503838</v>
+        <v>0.00846620934150384</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.004992709737767415</v>
+        <v>0.005214339762062918</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.01478363490350664</v>
+        <v>0.01422394798045998</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>23</v>
@@ -6149,19 +6149,19 @@
         <v>23016</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>14298</v>
+        <v>14226</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>36850</v>
+        <v>36404</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.01065934989477024</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.006621593619704099</v>
+        <v>0.006588336647512008</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.01706618107733392</v>
+        <v>0.01685953429480289</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>42</v>
@@ -6170,19 +6170,19 @@
         <v>41834</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>30518</v>
+        <v>29655</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>61038</v>
+        <v>58126</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.009546904439203988</v>
+        <v>0.009546904439203986</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.006964460856597623</v>
+        <v>0.006767521122146065</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.01392959637664015</v>
+        <v>0.01326509725595439</v>
       </c>
     </row>
     <row r="10">
@@ -6199,19 +6199,19 @@
         <v>128428</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>103455</v>
+        <v>103819</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>156797</v>
+        <v>157110</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.05778092208840183</v>
+        <v>0.05778092208840185</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04654520180922684</v>
+        <v>0.04670929925572986</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07054448426981973</v>
+        <v>0.07068520596913633</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>139</v>
@@ -6220,19 +6220,19 @@
         <v>103166</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>86901</v>
+        <v>84342</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>122226</v>
+        <v>122733</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.04777887085053319</v>
+        <v>0.04777887085053321</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04024634700685245</v>
+        <v>0.03906125746115233</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05660613530728992</v>
+        <v>0.05684080566069251</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>246</v>
@@ -6241,19 +6241,19 @@
         <v>231594</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>198554</v>
+        <v>201966</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>266833</v>
+        <v>266447</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.05285229691496668</v>
+        <v>0.05285229691496666</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0453123172365961</v>
+        <v>0.04609084169886073</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06089415790904987</v>
+        <v>0.06080624906893257</v>
       </c>
     </row>
     <row r="11">
@@ -6270,19 +6270,19 @@
         <v>284114</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>247227</v>
+        <v>249569</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>324787</v>
+        <v>323881</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1278252450485833</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1112298542058113</v>
+        <v>0.112283438647714</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1461245997035064</v>
+        <v>0.1457167520616452</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>348</v>
@@ -6291,19 +6291,19 @@
         <v>243934</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>217427</v>
+        <v>217528</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>272292</v>
+        <v>272193</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.112972567683092</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.100696223356336</v>
+        <v>0.1007428868975229</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1261057547560082</v>
+        <v>0.1260600999365585</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>589</v>
@@ -6312,19 +6312,19 @@
         <v>528048</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>485062</v>
+        <v>485521</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>576095</v>
+        <v>577161</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.1205064183583823</v>
+        <v>0.1205064183583822</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1106965815742274</v>
+        <v>0.1108012688945929</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1314712013810901</v>
+        <v>0.1317146432055135</v>
       </c>
     </row>
     <row r="12">
@@ -6341,19 +6341,19 @@
         <v>1791313</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1748181</v>
+        <v>1746798</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1835906</v>
+        <v>1833791</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.8059276235215109</v>
+        <v>0.8059276235215111</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.786522475291669</v>
+        <v>0.785899845235797</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8259907363710308</v>
+        <v>0.8250390072696773</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>2398</v>
@@ -6362,19 +6362,19 @@
         <v>1789119</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1753553</v>
+        <v>1754241</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>1823542</v>
+        <v>1822024</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.8285892115716045</v>
+        <v>0.8285892115716046</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8121174901985799</v>
+        <v>0.8124361302905654</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.8445316355762463</v>
+        <v>0.8438283153774094</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>4017</v>
@@ -6383,19 +6383,19 @@
         <v>3580432</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>3524784</v>
+        <v>3522740</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>3635474</v>
+        <v>3634657</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.8170943802874472</v>
+        <v>0.817094380287447</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.804394868685835</v>
+        <v>0.8039283946810472</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.829655377449688</v>
+        <v>0.8294689625456437</v>
       </c>
     </row>
     <row r="13">
@@ -6487,19 +6487,19 @@
         <v>2831</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>116</v>
+        <v>585</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>7513</v>
+        <v>7946</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.003985578759490131</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.0001635518856189617</v>
+        <v>0.0008235839686788907</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.01057517524611756</v>
+        <v>0.01118521711543296</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>6</v>
@@ -6508,19 +6508,19 @@
         <v>3886</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1336</v>
+        <v>1471</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>7965</v>
+        <v>8620</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.00531570918074521</v>
+        <v>0.005315709180745211</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.001827723514921549</v>
+        <v>0.00201212756741807</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01089595333096755</v>
+        <v>0.01179104045939249</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>9</v>
@@ -6529,19 +6529,19 @@
         <v>6717</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>2922</v>
+        <v>3297</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>12561</v>
+        <v>12252</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.004660163090670202</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.002027256874197269</v>
+        <v>0.002287425705831337</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.008714148899878619</v>
+        <v>0.008499622560517672</v>
       </c>
     </row>
     <row r="15">
@@ -6558,19 +6558,19 @@
         <v>25501</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>16151</v>
+        <v>16223</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>39665</v>
+        <v>39410</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.03589633605287657</v>
+        <v>0.03589633605287656</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.02273505773130127</v>
+        <v>0.02283591636514252</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.05583467274539766</v>
+        <v>0.05547541083634309</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>29</v>
@@ -6579,19 +6579,19 @@
         <v>21462</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>14478</v>
+        <v>14778</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>31255</v>
+        <v>31686</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.02935791707759396</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.01980532617080211</v>
+        <v>0.0202158236253181</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.04275506315791976</v>
+        <v>0.04334463824030704</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>51</v>
@@ -6600,19 +6600,19 @@
         <v>46963</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>34229</v>
+        <v>35365</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>63302</v>
+        <v>62440</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.03258033416243468</v>
+        <v>0.03258033416243467</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.02374634196508778</v>
+        <v>0.02453469558019967</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.04391559667623987</v>
+        <v>0.04331792226583318</v>
       </c>
     </row>
     <row r="16">
@@ -6629,19 +6629,19 @@
         <v>68350</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>53235</v>
+        <v>53165</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>89128</v>
+        <v>89385</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.09621252329515238</v>
+        <v>0.09621252329515237</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0749366937743853</v>
+        <v>0.07483775531455557</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1254607093679674</v>
+        <v>0.12582314428363</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>92</v>
@@ -6650,19 +6650,19 @@
         <v>66581</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>53205</v>
+        <v>52914</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>80941</v>
+        <v>82101</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.09107704544645485</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.07277990730050228</v>
+        <v>0.07238246009714813</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1107214978961219</v>
+        <v>0.1123071137259818</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>154</v>
@@ -6671,19 +6671,19 @@
         <v>134930</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>114009</v>
+        <v>113687</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>161935</v>
+        <v>156666</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.09360803216067787</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07909400716560303</v>
+        <v>0.0788700453850196</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1123426892276886</v>
+        <v>0.1086869207414989</v>
       </c>
     </row>
     <row r="17">
@@ -6700,19 +6700,19 @@
         <v>613723</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>592054</v>
+        <v>589721</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>632281</v>
+        <v>632270</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8639055618924809</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8334033271314447</v>
+        <v>0.830118894029118</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8900293781015141</v>
+        <v>0.8900133047338821</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>873</v>
@@ -6721,19 +6721,19 @@
         <v>639108</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>621803</v>
+        <v>621846</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>654811</v>
+        <v>653900</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8742493282952059</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8505777877618187</v>
+        <v>0.8506366083424323</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8957306630485431</v>
+        <v>0.8944837701087196</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1466</v>
@@ -6742,19 +6742,19 @@
         <v>1252831</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1219577</v>
+        <v>1227234</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1275777</v>
+        <v>1277818</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8691514705862172</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.846082108807464</v>
+        <v>0.8513941800505924</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8850705150505574</v>
+        <v>0.8864863551643785</v>
       </c>
     </row>
     <row r="18">
@@ -6846,19 +6846,19 @@
         <v>34906</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>25609</v>
+        <v>24052</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>49308</v>
+        <v>48621</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.009943021870319582</v>
+        <v>0.009943021870319585</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.00729465025326205</v>
+        <v>0.006851212553293045</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01404556939470974</v>
+        <v>0.01384988687935574</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>42</v>
@@ -6867,19 +6867,19 @@
         <v>36426</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>25803</v>
+        <v>25509</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>51040</v>
+        <v>50442</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.00982822342786932</v>
+        <v>0.009828223427869317</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.00696192254806104</v>
+        <v>0.006882655400727415</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.01377122269447738</v>
+        <v>0.01360967619070696</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>79</v>
@@ -6888,19 +6888,19 @@
         <v>71332</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>56074</v>
+        <v>54665</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>90666</v>
+        <v>90901</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.009884066189215253</v>
+        <v>0.009884066189215255</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.007769826357177071</v>
+        <v>0.007574548585829764</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01256304130055975</v>
+        <v>0.01259562967412094</v>
       </c>
     </row>
     <row r="20">
@@ -6917,19 +6917,19 @@
         <v>181626</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>152412</v>
+        <v>151207</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>214053</v>
+        <v>214817</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.05173636193695365</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.04341491142176972</v>
+        <v>0.04307154667911336</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.06097326076177628</v>
+        <v>0.06119104560639649</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>199</v>
@@ -6938,19 +6938,19 @@
         <v>142180</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>121860</v>
+        <v>120425</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>161990</v>
+        <v>163554</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.0383617334531148</v>
+        <v>0.03836173345311481</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.03287910500727228</v>
+        <v>0.03249187980263954</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.04370675356801753</v>
+        <v>0.04412877617244742</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>355</v>
@@ -6959,19 +6959,19 @@
         <v>323806</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>290369</v>
+        <v>287587</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>364279</v>
+        <v>360641</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.0448677118494431</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.04023462055884894</v>
+        <v>0.03984911310208671</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.0504758448828656</v>
+        <v>0.04997174830452286</v>
       </c>
     </row>
     <row r="21">
@@ -6988,19 +6988,19 @@
         <v>412430</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>367251</v>
+        <v>368946</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>462065</v>
+        <v>455872</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1174813823014551</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1046120596118127</v>
+        <v>0.1050946709751187</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1316197889049736</v>
+        <v>0.1298557619530298</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>512</v>
@@ -7009,19 +7009,19 @@
         <v>357880</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>325978</v>
+        <v>323634</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>390619</v>
+        <v>389811</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.09655994788840901</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.08795236722908199</v>
+        <v>0.08731999944540952</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1053933751079304</v>
+        <v>0.105175205270396</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>871</v>
@@ -7030,19 +7030,19 @@
         <v>770310</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>719607</v>
+        <v>718932</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>828985</v>
+        <v>827613</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1067370081690703</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.09971140598937125</v>
+        <v>0.09961787997952623</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1148671159113587</v>
+        <v>0.1146770850225715</v>
       </c>
     </row>
     <row r="22">
@@ -7059,19 +7059,19 @@
         <v>2881640</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2825376</v>
+        <v>2829943</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>2930872</v>
+        <v>2936301</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8208392338912716</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8048124400494506</v>
+        <v>0.8061134323468293</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8348629780615138</v>
+        <v>0.83640950155814</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>4573</v>
@@ -7080,19 +7080,19 @@
         <v>3169813</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>3129504</v>
+        <v>3131389</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>3209161</v>
+        <v>3210487</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8552500952306069</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8443745063055603</v>
+        <v>0.8448830790980472</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8658667682604051</v>
+        <v>0.8662244070489351</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>7377</v>
@@ -7101,19 +7101,19 @@
         <v>6051452</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>5981277</v>
+        <v>5980272</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>6113153</v>
+        <v>6116084</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8385112137922713</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8287874828453697</v>
+        <v>0.8286482386899847</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8470606543979162</v>
+        <v>0.8474668376106791</v>
       </c>
     </row>
     <row r="23">
